--- a/data/trans_dic/P22$notiene-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,06</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +765,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -894,7 +895,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +915,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +927,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1044,7 +1045,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1154,7 +1155,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1194,7 +1195,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1295,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,17 +1310,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,24 +1330,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1486,7 +1487,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,12 +1600,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,42</t>
+          <t>0,0; 0,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,4</t>
+          <t>0,0; 0,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,38</t>
         </is>
       </c>
     </row>
@@ -1709,17 +1710,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,77</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,12 +1740,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,39</t>
+          <t>0,28; 1,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,81</t>
+          <t>0,16; 0,82</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1845,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,49</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1859,12 +1860,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,23</t>
+          <t>0,02; 0,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,21</t>
+          <t>0,0; 0,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,17 +1875,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,27</t>
+          <t>0,02; 0,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,32</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,26</t>
+          <t>0,05; 0,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,12 +1895,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,26</t>
+          <t>0,06; 0,27</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,21</t>
+          <t>0,07; 0,23</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene Seguro Sanitario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12160</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8675</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6837</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11677</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8477</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6047</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2598</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5445</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1377</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4347</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6250</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1820</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1681</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1248</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4784</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9322</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1853</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8812</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1511</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8327</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6054</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5178</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2192</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6493</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8977</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2530</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1071</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7845</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5598</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4247</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3512</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10450</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5248</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5642</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4915</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6920</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1937</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7649</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8139</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6696</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7131</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2023; 10695</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6835</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6469</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8494</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2596; 13410</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3144</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5995</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>8090</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9912</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>8863</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1652; 14932</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1210; 9909</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2268; 15345</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>766; 8713</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 7585</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 6591</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>849; 8843</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2888; 12462</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3377; 17536</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1234; 12286</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>4332; 18989</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4762; 16226</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>